--- a/Bin_data/Burley/Burley51.xlsx
+++ b/Bin_data/Burley/Burley51.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.04999495212000001</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.19732787832</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.04999495212000001</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.26944225584</v>
+        <v>0.19732787832</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0.14338982724</v>
+        <v>0</v>
       </c>
       <c r="BB20">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AZ21">
-        <v>0.06020154744</v>
+        <v>0</v>
       </c>
       <c r="BA21">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>0.03433966872</v>
+        <v>0</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3994,58 +3994,58 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.24137770068</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.13816402344</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.12433136808</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.22501758516</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.3892417542</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1.56642607296</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>2.04477152988</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1.84219588572</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1.48805284596</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1.55597828244</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1.05667218816</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.64118529828</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.61817267616</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.47964132792</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.317612865</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.16271675436</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.12609535692</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.07780370760000001</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.26944225584</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>0.14338982724</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.72</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4167,28 +4167,28 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.16485155316</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.20075871408</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.28894233456</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.2481895842</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.85708758576</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.93577547292</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.6760318641600001</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.41957166336</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.22609886988</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -4275,16 +4275,16 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>0.06020154744</v>
       </c>
       <c r="BA23">
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>0.08646145356</v>
+        <v>0</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>0.03433966872</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4334,58 +4334,58 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.24137770068</v>
       </c>
       <c r="P24">
-        <v>0.11591686416</v>
+        <v>0.13816402344</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.12433136808</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.22501758516</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.3892417542</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.56642607296</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2.04477152988</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.84219588572</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1.48805284596</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1.55597828244</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1.05667218816</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.64118529828</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>0.61817267616</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.47964132792</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>0.317612865</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>0.16271675436</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>0.12609535692</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>0.07780370760000001</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4507,28 +4507,28 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.16485155316</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.20075871408</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.28894233456</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.2481895842</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.85708758576</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.93577547292</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>0.6760318641600001</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.41957166336</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.22609886988</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.2900637816</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>0.08646145356</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
-        <v>0.04396285932</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.11591686416</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4919,19 +4919,19 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.2284215354</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.22445182752</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1.20410374992</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>0.85297559484</v>
+        <v>0</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -4967,12 +4967,12 @@
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>0.06139369343999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.08993516232</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>0.2900637816</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.07337086068</v>
+        <v>0</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0.05904303599999999</v>
+        <v>0</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>0.05667451020000001</v>
+        <v>0</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.04396285932</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5181,22 +5181,22 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0.4591073184</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0.23298388644</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.19463451348</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0.01564460664</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0.23083310016</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -5235,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0.0306959616</v>
+        <v>0</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.10258806336</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>0.0896034636</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -5259,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0.30751027128</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.47294307168</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.09119811792</v>
+        <v>0</v>
       </c>
       <c r="AT29">
         <v>0</v>
@@ -5289,19 +5289,19 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>0.4711577293200001</v>
+        <v>0</v>
       </c>
       <c r="AY29">
         <v>0</v>
       </c>
       <c r="AZ29">
-        <v>0.22672022412</v>
+        <v>0</v>
       </c>
       <c r="BA29">
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0.48986490648</v>
+        <v>0</v>
       </c>
       <c r="BC29">
         <v>0</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
-        <v>0.4994793012</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.2750917002</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5342,311 +5342,991 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0.528700155</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.91498400412</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1.59972085752</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1.54998076464</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>2.14869468612</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>1.6880046072</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.879659916</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.4314896382</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0.33341884008</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.20020634388</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0.18225649752</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>1.28427144708</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1.026322917</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.83299024908</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.92610122196</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.91475027712</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.18517711692</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.7513728913200001</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>0.17970513912</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.63031087992</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.13730346552</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.5870943980400001</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>0.45833494056</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>0.5770636650000001</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.58075262388</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>0.68267170248</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.79284231228</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>0.9417333262799999</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>0.8300542507199999</v>
+        <v>0.2284215354</v>
       </c>
       <c r="AO30">
-        <v>1.04253626856</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.9975485509199999</v>
+        <v>0.22445182752</v>
       </c>
       <c r="AQ30">
-        <v>0.29458724268</v>
+        <v>1.20410374992</v>
       </c>
       <c r="AR30">
-        <v>0.83992898136</v>
+        <v>0.85297559484</v>
       </c>
       <c r="AS30">
-        <v>0.1292380308</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>0.6005755501200001</v>
+        <v>0</v>
       </c>
       <c r="AU30">
-        <v>0.77919204696</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>0.6724462983599999</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>0.90690507132</v>
+        <v>0</v>
       </c>
       <c r="AX30">
-        <v>0.56392898208</v>
+        <v>0</v>
       </c>
       <c r="AY30">
-        <v>0.6348410347200001</v>
+        <v>0</v>
       </c>
       <c r="AZ30">
-        <v>0.56296879284</v>
+        <v>0</v>
       </c>
       <c r="BA30">
-        <v>1.77976239756</v>
+        <v>0</v>
       </c>
       <c r="BB30">
-        <v>0.8316959270399999</v>
+        <v>0</v>
       </c>
       <c r="BC30">
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>0.06139369343999999</v>
       </c>
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.08993516232</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0.07337086068</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0.05904303599999999</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0.05667451020000001</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.4591073184</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.23298388644</v>
+      </c>
+      <c r="Q32">
+        <v>0.19463451348</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.01564460664</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.23083310016</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0.0306959616</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0.10258806336</v>
+      </c>
+      <c r="AI32">
+        <v>0.0896034636</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0.30751027128</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.47294307168</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0.09119811792</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0.4711577293200001</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0.22672022412</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0.48986490648</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B33">
+        <v>0.4994793012</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.2750917002</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.528700155</v>
+      </c>
+      <c r="L33">
+        <v>0.91498400412</v>
+      </c>
+      <c r="M33">
+        <v>1.59972085752</v>
+      </c>
+      <c r="N33">
+        <v>1.54998076464</v>
+      </c>
+      <c r="O33">
+        <v>2.14869468612</v>
+      </c>
+      <c r="P33">
+        <v>1.6880046072</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0.879659916</v>
+      </c>
+      <c r="S33">
+        <v>0.4314896382</v>
+      </c>
+      <c r="T33">
+        <v>0.33341884008</v>
+      </c>
+      <c r="U33">
+        <v>0.20020634388</v>
+      </c>
+      <c r="V33">
+        <v>0.18225649752</v>
+      </c>
+      <c r="W33">
+        <v>1.28427144708</v>
+      </c>
+      <c r="X33">
+        <v>1.026322917</v>
+      </c>
+      <c r="Y33">
+        <v>0.83299024908</v>
+      </c>
+      <c r="Z33">
+        <v>0.92610122196</v>
+      </c>
+      <c r="AA33">
+        <v>0.91475027712</v>
+      </c>
+      <c r="AB33">
+        <v>0.18517711692</v>
+      </c>
+      <c r="AC33">
+        <v>0.7513728913200001</v>
+      </c>
+      <c r="AD33">
+        <v>0.17970513912</v>
+      </c>
+      <c r="AE33">
+        <v>0.63031087992</v>
+      </c>
+      <c r="AF33">
+        <v>0.13730346552</v>
+      </c>
+      <c r="AG33">
+        <v>0.5870943980400001</v>
+      </c>
+      <c r="AH33">
+        <v>0.45833494056</v>
+      </c>
+      <c r="AI33">
+        <v>0.5770636650000001</v>
+      </c>
+      <c r="AJ33">
+        <v>0.58075262388</v>
+      </c>
+      <c r="AK33">
+        <v>0.68267170248</v>
+      </c>
+      <c r="AL33">
+        <v>0.79284231228</v>
+      </c>
+      <c r="AM33">
+        <v>0.9417333262799999</v>
+      </c>
+      <c r="AN33">
+        <v>0.8300542507199999</v>
+      </c>
+      <c r="AO33">
+        <v>1.04253626856</v>
+      </c>
+      <c r="AP33">
+        <v>0.9975485509199999</v>
+      </c>
+      <c r="AQ33">
+        <v>0.29458724268</v>
+      </c>
+      <c r="AR33">
+        <v>0.83992898136</v>
+      </c>
+      <c r="AS33">
+        <v>0.1292380308</v>
+      </c>
+      <c r="AT33">
+        <v>0.6005755501200001</v>
+      </c>
+      <c r="AU33">
+        <v>0.77919204696</v>
+      </c>
+      <c r="AV33">
+        <v>0.6724462983599999</v>
+      </c>
+      <c r="AW33">
+        <v>0.90690507132</v>
+      </c>
+      <c r="AX33">
+        <v>0.56392898208</v>
+      </c>
+      <c r="AY33">
+        <v>0.6348410347200001</v>
+      </c>
+      <c r="AZ33">
+        <v>0.56296879284</v>
+      </c>
+      <c r="BA33">
+        <v>1.77976239756</v>
+      </c>
+      <c r="BB33">
+        <v>0.8316959270399999</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
         <v>0.99</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1.30514390436</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>0.46303022556</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>0.57626241012</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <v>0.34561015104</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>0.3367444572</v>
       </c>
-      <c r="H31">
+      <c r="H34">
         <v>0.19202523504</v>
       </c>
-      <c r="I31">
+      <c r="I34">
         <v>0.26043012996</v>
       </c>
-      <c r="J31">
+      <c r="J34">
         <v>0.0311993736</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>0.01547112312</v>
       </c>
-      <c r="V31">
+      <c r="V34">
         <v>0.02697884484</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <v>0.37277531364</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>0.25432689564</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
         <v>0.195830034</v>
       </c>
-      <c r="AF31">
+      <c r="AF34">
         <v>0.07285162716</v>
       </c>
-      <c r="AG31">
+      <c r="AG34">
         <v>0.19038411192</v>
       </c>
-      <c r="AH31">
+      <c r="AH34">
         <v>0.18618300048</v>
       </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
         <v>0.6933449220000001</v>
       </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Burley/Burley51.xlsx
+++ b/Bin_data/Burley/Burley51.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5654,6 +5654,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
